--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2873.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2873.xlsx
@@ -354,7 +354,7 @@
         <v>2.063695660053529</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.08252172294325</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2873.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2873.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202248965013273</v>
+        <v>1.224575996398926</v>
       </c>
       <c r="B1">
-        <v>2.063695660053529</v>
+        <v>2.778353214263916</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.99786639213562</v>
       </c>
       <c r="D1">
-        <v>2.08252172294325</v>
+        <v>3.592722415924072</v>
       </c>
       <c r="E1">
-        <v>1.205186596605347</v>
+        <v>1.78554356098175</v>
       </c>
     </row>
   </sheetData>
